--- a/train.xlsx
+++ b/train.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090DE75D-5197-4A6B-940A-9B374067CA8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC28766-D07E-4A1A-870E-04828F572809}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,18 +58,6 @@
     <t>chào cờ</t>
   </si>
   <si>
-    <t>gặp gỡ</t>
-  </si>
-  <si>
-    <t>cờ</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>xin</t>
-  </si>
-  <si>
     <t>chào bạn</t>
   </si>
   <si>
@@ -97,24 +85,9 @@
     <t>buổi sáng vui vẻ</t>
   </si>
   <si>
-    <t>buổi sáng</t>
-  </si>
-  <si>
-    <t>buổi trưa</t>
-  </si>
-  <si>
-    <t>buổi tối</t>
-  </si>
-  <si>
     <t>tôi đi đây</t>
   </si>
   <si>
-    <t>buổi</t>
-  </si>
-  <si>
-    <t>he he</t>
-  </si>
-  <si>
     <t>zalo</t>
   </si>
   <si>
@@ -290,6 +263,33 @@
   </si>
   <si>
     <t>ngày bao bao</t>
+  </si>
+  <si>
+    <t>giáo sư</t>
+  </si>
+  <si>
+    <t>nghỉ</t>
+  </si>
+  <si>
+    <t>mẹ</t>
+  </si>
+  <si>
+    <t>nhảy</t>
+  </si>
+  <si>
+    <t>sơn tùng</t>
+  </si>
+  <si>
+    <t>liên quân</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -617,9 +617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -637,40 +637,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -696,43 +696,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
       <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
         <v>61</v>
       </c>
-      <c r="J2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" t="s">
-        <v>70</v>
-      </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="N2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" t="s">
         <v>81</v>
-      </c>
-      <c r="O2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -743,43 +743,43 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="J3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" t="s">
-        <v>70</v>
-      </c>
       <c r="M3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" t="s">
         <v>73</v>
       </c>
-      <c r="N3" t="s">
-        <v>82</v>
-      </c>
       <c r="O3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
@@ -790,43 +790,43 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" t="s">
         <v>61</v>
       </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>70</v>
       </c>
-      <c r="M4" t="s">
-        <v>79</v>
-      </c>
       <c r="N4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
@@ -837,43 +837,43 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
         <v>53</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" t="s">
         <v>61</v>
       </c>
-      <c r="J5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" t="s">
-        <v>70</v>
-      </c>
       <c r="M5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
         <v>83</v>
-      </c>
-      <c r="O5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -884,278 +884,278 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s">
         <v>61</v>
       </c>
-      <c r="J6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" t="s">
-        <v>70</v>
-      </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
         <v>84</v>
-      </c>
-      <c r="O6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
       <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>51</v>
       </c>
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
       <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" t="s">
         <v>61</v>
       </c>
-      <c r="J7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" t="s">
-        <v>70</v>
-      </c>
       <c r="M7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="N7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" t="s">
         <v>85</v>
-      </c>
-      <c r="O7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" t="s">
         <v>65</v>
       </c>
-      <c r="L8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" t="s">
-        <v>74</v>
-      </c>
       <c r="N8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" t="s">
         <v>86</v>
-      </c>
-      <c r="O8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
         <v>55</v>
       </c>
-      <c r="H9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" t="s">
-        <v>64</v>
-      </c>
       <c r="K9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" t="s">
         <v>65</v>
       </c>
-      <c r="L9" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" t="s">
-        <v>74</v>
-      </c>
       <c r="N9" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" t="s">
         <v>87</v>
-      </c>
-      <c r="O9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" t="s">
         <v>63</v>
       </c>
-      <c r="K10" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" t="s">
-        <v>72</v>
-      </c>
       <c r="M10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="N10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" t="s">
         <v>88</v>
-      </c>
-      <c r="O10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
         <v>60</v>
       </c>
-      <c r="I11" t="s">
-        <v>69</v>
-      </c>
       <c r="J11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" t="s">
         <v>63</v>
       </c>
-      <c r="K11" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" t="s">
-        <v>72</v>
-      </c>
       <c r="M11" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="N11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="O11" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/train.xlsx
+++ b/train.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC28766-D07E-4A1A-870E-04828F572809}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C2A578-699D-4597-8AA1-EC61080B96BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t>chào</t>
   </si>
@@ -28,9 +28,6 @@
     <t>tạm biệt</t>
   </si>
   <si>
-    <t>không biết</t>
-  </si>
-  <si>
     <t>xin chào</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>hello</t>
   </si>
   <si>
-    <t>xin chào xin chào</t>
-  </si>
-  <si>
     <t>hẹn gặp lại</t>
   </si>
   <si>
@@ -55,15 +49,6 @@
     <t>bye bye</t>
   </si>
   <si>
-    <t>chào cờ</t>
-  </si>
-  <si>
-    <t>chào bạn</t>
-  </si>
-  <si>
-    <t>chào cậu</t>
-  </si>
-  <si>
     <t>chào buổi sáng</t>
   </si>
   <si>
@@ -76,15 +61,6 @@
     <t>chúc ngủ ngon</t>
   </si>
   <si>
-    <t>buổi tối vui vẻ</t>
-  </si>
-  <si>
-    <t>buổi trưa vui vẻ</t>
-  </si>
-  <si>
-    <t>buổi sáng vui vẻ</t>
-  </si>
-  <si>
     <t>tôi đi đây</t>
   </si>
   <si>
@@ -157,27 +133,15 @@
     <t>hôm nay</t>
   </si>
   <si>
-    <t>date now</t>
-  </si>
-  <si>
     <t>thời gian hiện tại</t>
   </si>
   <si>
-    <t>hiện tại</t>
-  </si>
-  <si>
-    <t>clock</t>
-  </si>
-  <si>
     <t>năm</t>
   </si>
   <si>
     <t>nay ngày</t>
   </si>
   <si>
-    <t>ngày ngày</t>
-  </si>
-  <si>
     <t>google</t>
   </si>
   <si>
@@ -262,34 +226,19 @@
     <t>hôm nay nhiệt độ</t>
   </si>
   <si>
-    <t>ngày bao bao</t>
-  </si>
-  <si>
-    <t>giáo sư</t>
-  </si>
-  <si>
-    <t>nghỉ</t>
-  </si>
-  <si>
-    <t>mẹ</t>
-  </si>
-  <si>
-    <t>nhảy</t>
-  </si>
-  <si>
-    <t>sơn tùng</t>
-  </si>
-  <si>
-    <t>liên quân</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>f</t>
+    <t>xin chào tạm biệt</t>
+  </si>
+  <si>
+    <t>open zalo</t>
+  </si>
+  <si>
+    <t>open word</t>
+  </si>
+  <si>
+    <t>open excel</t>
+  </si>
+  <si>
+    <t>open powerpoint</t>
   </si>
 </sst>
 </file>
@@ -615,11 +564,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -637,44 +586,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -696,466 +643,233 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" t="s">
         <v>52</v>
       </c>
-      <c r="J2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" t="s">
-        <v>64</v>
-      </c>
       <c r="N2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>61</v>
-      </c>
-      <c r="M3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s">
         <v>57</v>
       </c>
-      <c r="L5" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" t="s">
-        <v>69</v>
-      </c>
       <c r="N5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
       <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="M7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="N7" t="s">
-        <v>76</v>
-      </c>
-      <c r="O7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
       <c r="G8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" t="s">
         <v>65</v>
       </c>
-      <c r="N8" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
-      </c>
-      <c r="O9" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" t="s">
-        <v>66</v>
-      </c>
       <c r="N10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/train.xlsx
+++ b/train.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C2A578-699D-4597-8AA1-EC61080B96BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554EFBD0-2E46-48CF-A97E-E858E3E7B329}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="89">
   <si>
     <t>chào</t>
   </si>
@@ -239,6 +239,54 @@
   </si>
   <si>
     <t>open powerpoint</t>
+  </si>
+  <si>
+    <t>mạng</t>
+  </si>
+  <si>
+    <t>kiểm tra mạng</t>
+  </si>
+  <si>
+    <t>tốc độ mạng</t>
+  </si>
+  <si>
+    <t>điều khiển</t>
+  </si>
+  <si>
+    <t>âm lượng</t>
+  </si>
+  <si>
+    <t>volumn</t>
+  </si>
+  <si>
+    <t>loa</t>
+  </si>
+  <si>
+    <t>điều khiển màn hình</t>
+  </si>
+  <si>
+    <t>băng thông mạng</t>
+  </si>
+  <si>
+    <t>điều khiển âm lượng</t>
+  </si>
+  <si>
+    <t>xin chào bạn</t>
+  </si>
+  <si>
+    <t>chào bạn</t>
+  </si>
+  <si>
+    <t>hello bạn</t>
+  </si>
+  <si>
+    <t>thư điện tử</t>
+  </si>
+  <si>
+    <t>thư</t>
+  </si>
+  <si>
+    <t>chào bạn hẹn gặp lại</t>
   </si>
 </sst>
 </file>
@@ -564,18 +612,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="15.625" customWidth="1"/>
+    <col min="16" max="16" width="17.5" customWidth="1"/>
+    <col min="17" max="17" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
@@ -621,9 +672,15 @@
       <c r="N1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="O1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -678,6 +735,15 @@
       <c r="N2" t="s">
         <v>60</v>
       </c>
+      <c r="O2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -722,6 +788,15 @@
       <c r="N3" t="s">
         <v>61</v>
       </c>
+      <c r="O3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -766,6 +841,12 @@
       <c r="N4" t="s">
         <v>59</v>
       </c>
+      <c r="O4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -786,11 +867,20 @@
       <c r="H5" t="s">
         <v>36</v>
       </c>
+      <c r="L5" t="s">
+        <v>86</v>
+      </c>
       <c r="M5" t="s">
         <v>57</v>
       </c>
       <c r="N5" t="s">
         <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -812,6 +902,9 @@
       <c r="H6" t="s">
         <v>38</v>
       </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
       <c r="M6" t="s">
         <v>55</v>
       </c>
@@ -857,6 +950,9 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
       <c r="B9" t="s">
         <v>68</v>
       </c>
@@ -868,8 +964,22 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
       <c r="N10" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/train.xlsx
+++ b/train.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554EFBD0-2E46-48CF-A97E-E858E3E7B329}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F4B286-1A8A-4822-B9B8-61B5CCF91297}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="104">
   <si>
     <t>chào</t>
   </si>
@@ -287,6 +287,51 @@
   </si>
   <si>
     <t>chào bạn hẹn gặp lại</t>
+  </si>
+  <si>
+    <t>bạn có thể mở zalo được không</t>
+  </si>
+  <si>
+    <t>bạn có thể mở word được không</t>
+  </si>
+  <si>
+    <t>bạn có thể mở excel được không</t>
+  </si>
+  <si>
+    <t>bạn có thể mở powerpoint được không</t>
+  </si>
+  <si>
+    <t>bạn có thể mở google được không</t>
+  </si>
+  <si>
+    <t>bạn có thể mở facebook được không</t>
+  </si>
+  <si>
+    <t>bạn có thể mở youtube được không</t>
+  </si>
+  <si>
+    <t>bạn có thể mở gmail được không</t>
+  </si>
+  <si>
+    <t>bạn có thể mở wiki media được không</t>
+  </si>
+  <si>
+    <t>chức năng</t>
+  </si>
+  <si>
+    <t>bạn có thể làm được những gì</t>
+  </si>
+  <si>
+    <t>bạn có những chức năng gì</t>
+  </si>
+  <si>
+    <t>nạn làm được gì</t>
+  </si>
+  <si>
+    <t>bạn giúp tôi được gì</t>
+  </si>
+  <si>
+    <t>bạn giúp mình được gì nào</t>
   </si>
 </sst>
 </file>
@@ -614,19 +659,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="28.125" customWidth="1"/>
+    <col min="5" max="5" width="27.625" customWidth="1"/>
+    <col min="6" max="6" width="32.5" customWidth="1"/>
+    <col min="7" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="30.625" customWidth="1"/>
+    <col min="11" max="11" width="30.375" customWidth="1"/>
+    <col min="12" max="12" width="27.875" customWidth="1"/>
+    <col min="13" max="13" width="32.5" customWidth="1"/>
+    <col min="14" max="14" width="17.625" customWidth="1"/>
+    <col min="15" max="15" width="15.375" customWidth="1"/>
     <col min="16" max="16" width="17.5" customWidth="1"/>
     <col min="17" max="17" width="17.375" customWidth="1"/>
+    <col min="18" max="18" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
@@ -681,7 +737,9 @@
       <c r="Q1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="2"/>
+      <c r="R1" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -744,6 +802,9 @@
       <c r="Q2" t="s">
         <v>78</v>
       </c>
+      <c r="R2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -797,6 +858,9 @@
       <c r="Q3" t="s">
         <v>77</v>
       </c>
+      <c r="R3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -847,6 +911,9 @@
       <c r="Q4" t="s">
         <v>79</v>
       </c>
+      <c r="R4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -855,18 +922,33 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
       </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
       <c r="G5" t="s">
         <v>30</v>
       </c>
       <c r="H5" t="s">
         <v>36</v>
       </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" t="s">
+        <v>95</v>
+      </c>
       <c r="L5" t="s">
         <v>86</v>
       </c>
@@ -881,6 +963,9 @@
       </c>
       <c r="Q5" t="s">
         <v>82</v>
+      </c>
+      <c r="R5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -902,6 +987,9 @@
       <c r="H6" t="s">
         <v>38</v>
       </c>
+      <c r="I6" t="s">
+        <v>93</v>
+      </c>
       <c r="L6" t="s">
         <v>87</v>
       </c>
@@ -910,6 +998,9 @@
       </c>
       <c r="N6" t="s">
         <v>63</v>
+      </c>
+      <c r="R6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
@@ -919,17 +1010,29 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
       <c r="G7" t="s">
         <v>34</v>
       </c>
       <c r="H7" t="s">
         <v>39</v>
       </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
       <c r="M7" t="s">
         <v>56</v>
       </c>
       <c r="N7" t="s">
         <v>64</v>
+      </c>
+      <c r="R7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
@@ -958,6 +1061,9 @@
       </c>
       <c r="G9" t="s">
         <v>37</v>
+      </c>
+      <c r="M9" t="s">
+        <v>97</v>
       </c>
       <c r="N9" t="s">
         <v>66</v>

--- a/train.xlsx
+++ b/train.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F4B286-1A8A-4822-B9B8-61B5CCF91297}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1517C8B4-5094-481C-A998-D7375316D67B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="113">
   <si>
     <t>chào</t>
   </si>
@@ -332,6 +332,33 @@
   </si>
   <si>
     <t>bạn giúp mình được gì nào</t>
+  </si>
+  <si>
+    <t>kiểm tra tốc độ mạng</t>
+  </si>
+  <si>
+    <t>giúp tôi mở zalo</t>
+  </si>
+  <si>
+    <t>giúp tôi mở word</t>
+  </si>
+  <si>
+    <t>giúp tôi mở excel</t>
+  </si>
+  <si>
+    <t>giúp tôi mở powerpoint</t>
+  </si>
+  <si>
+    <t>giúp tôi mở google</t>
+  </si>
+  <si>
+    <t>giúp tôi mở facebook</t>
+  </si>
+  <si>
+    <t>giúp tôi mở youtube</t>
+  </si>
+  <si>
+    <t>giúp tôi mở gmail</t>
   </si>
 </sst>
 </file>
@@ -659,9 +686,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -679,7 +706,7 @@
     <col min="12" max="12" width="27.875" customWidth="1"/>
     <col min="13" max="13" width="32.5" customWidth="1"/>
     <col min="14" max="14" width="17.625" customWidth="1"/>
-    <col min="15" max="15" width="15.375" customWidth="1"/>
+    <col min="15" max="15" width="18.625" customWidth="1"/>
     <col min="16" max="16" width="17.5" customWidth="1"/>
     <col min="17" max="17" width="17.375" customWidth="1"/>
     <col min="18" max="18" width="25.5" customWidth="1"/>
@@ -975,12 +1002,18 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
       <c r="D6" t="s">
         <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>71</v>
       </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
       <c r="G6" t="s">
         <v>33</v>
       </c>
@@ -990,6 +1023,12 @@
       <c r="I6" t="s">
         <v>93</v>
       </c>
+      <c r="J6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" t="s">
+        <v>111</v>
+      </c>
       <c r="L6" t="s">
         <v>87</v>
       </c>
@@ -998,6 +1037,9 @@
       </c>
       <c r="N6" t="s">
         <v>63</v>
+      </c>
+      <c r="O6" t="s">
+        <v>104</v>
       </c>
       <c r="R6" t="s">
         <v>102</v>
@@ -1022,6 +1064,9 @@
       <c r="H7" t="s">
         <v>39</v>
       </c>
+      <c r="I7" t="s">
+        <v>109</v>
+      </c>
       <c r="L7" t="s">
         <v>96</v>
       </c>
@@ -1042,8 +1087,17 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" t="s">
+        <v>107</v>
+      </c>
       <c r="G8" t="s">
         <v>35</v>
+      </c>
+      <c r="L8" t="s">
+        <v>112</v>
       </c>
       <c r="M8" t="s">
         <v>54</v>
